--- a/biology/Botanique/Thamnocalamus/Thamnocalamus.xlsx
+++ b/biology/Botanique/Thamnocalamus/Thamnocalamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Thamnocalamus  est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Bambusoideae, originaire d'Asie et d'Afrique australe, qui comprend 4 à 5 espèces selon les auteurs.
-Ce genre est très proche parent de Fargesia. Certains auteurs considèrent que les deux genres doivent être fusionnés[2].
+Ce genre est très proche parent de Fargesia. Certains auteurs considèrent que les deux genres doivent être fusionnés.
 Étymologie
-le nom générique « Thamnocalamus » est formé de deux racines grecques : θαμνος (thamnos), buisson, arbuste, et κάλαμος (kalamos), latinisé en calamus, roseau, en référence au port buissonnant de la plante[3].</t>
+le nom générique « Thamnocalamus » est formé de deux racines grecques : θαμνος (thamnos), buisson, arbuste, et κάλαμος (kalamos), latinisé en calamus, roseau, en référence au port buissonnant de la plante.</t>
         </is>
       </c>
     </row>
@@ -513,15 +525,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (10 juillet 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (10 juillet 2017) :
 Thamnocalamus arunachalensis H.B.Naithani (2015)
 Thamnocalamus chigar (Stapleton) Stapleton (2007)
 Thamnocalamus ibityensis (A.Camus) Ohrnb. (1996)
 Thamnocalamus spathiflorus (Trin.) Munro (1868)
 Thamnocalamus unispiculatus T.P.Yi &amp; J.Y.Shi (2007)
-Selon The Plant List            (10 juillet 2017)[5] :
+Selon The Plant List            (10 juillet 2017) :
 Thamnocalamus chigar (Stapleton) Stapleton
 Thamnocalamus spathiflorus (Trin.) Munro
 Thamnocalamus tessellatus (Nees) Soderstr. &amp; R.P.Ellis
